--- a/NI-2010/Drivers/Inficon Fusion Micro GC/Documentation/Heating Value Calculation.xlsx
+++ b/NI-2010/Drivers/Inficon Fusion Micro GC/Documentation/Heating Value Calculation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechnologyLab\NI-2010\Drivers\Inficon Fusion Micro GC\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8758F197-7F6F-4CFA-A6F2-FCBC59AE830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BA193-C563-4A54-B84A-9D3C201E15A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7F24E6D-7FDD-4A0F-8ED2-5C5CE87F8EBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Heating Value Calculator" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Reference" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,91 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sweatt, Corey (GE Appliances, Haier)</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{24F3D470-043D-44AC-B0EF-00D3DF6B9A82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sweatt, Corey (GE Appliances, Haier):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The HHV values listed below have been taken using the GPA 2172-96/2145-09
+The Standard Temperature is not directly used in the below calculations because the standard lists the HHV in a table at a specific temperature, in this case 60°F</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{3E63E8D6-5336-4AD5-8C3B-9FEF6EB03077}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sweatt, Corey (GE Appliances, Haier):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The HHV values listed below have been taken using the GPA 2172-96/2145-09
+The Standard Temperature is not directly used in the below calculations because the standard lists the HHV in a table at a specific temperature, in this case 60°F</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{E64F00FC-149A-49EB-B147-E8ABC85B2B20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sweatt, Corey (GE Appliances, Haier):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The HHV values listed below have been taken using the GPA 2172-96/2145-09
+The Standard Temperature is not directly used in the below calculations because the standard lists the HHV in a table at a specific temperature, in this case 60°F</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="31">
   <si>
     <t>Component Name</t>
   </si>
@@ -145,21 +231,44 @@
   <si>
     <t>CSA Natural Gas Verification ~1025</t>
   </si>
+  <si>
+    <t>Standard Pressure (psia)</t>
+  </si>
+  <si>
+    <t>Standard Temperature (°F)</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -209,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -223,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +351,185 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7F9454-E623-63A8-E4D5-5D4819BAA190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="590550"/>
+          <a:ext cx="2514600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>You have</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> to adjust for to 30 in HG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96118A3E-BBD9-6483-8200-67BE19403C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8467725" y="104775"/>
+          <a:ext cx="3114675" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1761215</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>113679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C312C2-0084-41C9-983F-0A99C218AE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="4095750"/>
+          <a:ext cx="7276190" cy="4971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -289,7 +578,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -698,11 +987,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40A45C4-DE27-46B4-BD83-C885145CF050}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4">
+        <v>14.696</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4">
+        <v>14.7346</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>14.7346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4">
+        <v>60</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.43E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>8.064E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Q6*R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D17" si="0">B7*C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" ref="I7:I17" si="1">G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>9.6489999999999996E-3</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" ref="S7:S17" si="2">Q7*R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1769.7</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>52.560090000000002</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1769</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>52.539300000000004</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>4.0149999999999998E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1769.7</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="2"/>
+        <v>71.053455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2516.1</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>18.619140000000002</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2516</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>18.618400000000001</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>5.0670000000000003E-3</v>
+      </c>
+      <c r="R10" s="5">
+        <v>2516.1</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="2"/>
+        <v>12.7490787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3251.9</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8778500000000005</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3273</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9095000000000004</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="R11" s="5">
+        <v>3251.9</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="2"/>
+        <v>6.5038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3262.3</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5459100000000001</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3268</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5556000000000001</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>9.9099999999999991E-4</v>
+      </c>
+      <c r="R12" s="5">
+        <v>3262.3</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2329393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4000.9</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4009</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>8.0400000000000003E-4</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4000.9</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2167236000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4008.9</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3990</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R14" s="5">
+        <v>4008.9</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2071200000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4755.8999999999996</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4830</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R15" s="5">
+        <v>4755.8999999999996</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8047200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5502.5</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5550</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>5502.5</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>947.78399999999999</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>947.78399999999999</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.93167500000000003</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1010</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="2"/>
+        <v>940.99175000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <f>SUM(B6:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(G6:G17)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="P18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>SUM(Q6:Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5">
+        <f>SUM(D6:D17)*B1/14.696</f>
+        <v>1029.38699</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5">
+        <f>SUM(I6:I17)*G1/14.696</f>
+        <v>1032.1106039248775</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5">
+        <f>SUM(S6:S17)*Q1/14.696</f>
+        <v>1047.5037156176074</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="P4:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132868DE-B6EC-4589-97DF-3DCBFBCAAC6B}">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,21 +3221,21 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="K20:N20"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A88D97-D86A-4E31-875C-285965B7551C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2272,12 +3250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB226D-7E90-4E99-AF68-79EE95F56265}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
